--- a/medicine/Enfance/John_Burningham/John_Burningham.xlsx
+++ b/medicine/Enfance/John_Burningham/John_Burningham.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Burningham (né le 27 avril 1936 à Farnham (Surrey) et mort le 4 janvier 2019 à Londres[1] d'une pneumonie[2]) est un auteur et illustrateur britannique de littérature jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Burningham (né le 27 avril 1936 à Farnham (Surrey) et mort le 4 janvier 2019 à Londres d'une pneumonie) est un auteur et illustrateur britannique de littérature jeunesse.
 </t>
         </is>
       </c>
@@ -511,16 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Burningham a passé cinq ans dans l'école libertaire de Summerhill. Il témoigne de son expérience dans cette école et de ce qu'elle lui a apporté dans le documentaire Les enfants de Summerhill de Bernard Kleindienst en 1997[3].
-Il étudie ensuite le graphisme à la Central School of Art and Design de Londres[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Burningham a passé cinq ans dans l'école libertaire de Summerhill. Il témoigne de son expérience dans cette école et de ce qu'elle lui a apporté dans le documentaire Les enfants de Summerhill de Bernard Kleindienst en 1997.
+Il étudie ensuite le graphisme à la Central School of Art and Design de Londres.
 Il a été lauréat de la médaille Kate Greenaway, qui récompense un illustrateur anglais de livres jeunesse, à deux reprises :
-- pour son premier ouvrage Borka: The Adventures of a Goose With No Feathers (traduit en français sous le titre Borka : les aventures d'une oie sans plumes) en 1963[4], 
-- et pour Mr Gumpy's Outing (traduit en français sous le titre La promenade de Monsieur Gumpy) en 1970[5].
-Ce dernier ouvrage a également été honoré de la « Mention d'Honneur » à la Biennale d'illustration de Bratislava (BIB)[6] en 1971, biennale internationale se déroulant en Slovaquie, qui récompense des illustrateurs de toutes les nationalités.
-Famille
-Sa femme, Helen Oxenbury, est aussi auteure et illustratrice anglaise.
+- pour son premier ouvrage Borka: The Adventures of a Goose With No Feathers (traduit en français sous le titre Borka : les aventures d'une oie sans plumes) en 1963, 
+- et pour Mr Gumpy's Outing (traduit en français sous le titre La promenade de Monsieur Gumpy) en 1970.
+Ce dernier ouvrage a également été honoré de la « Mention d'Honneur » à la Biennale d'illustration de Bratislava (BIB) en 1971, biennale internationale se déroulant en Slovaquie, qui récompense des illustrateurs de toutes les nationalités.
 </t>
         </is>
       </c>
@@ -546,10 +558,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa femme, Helen Oxenbury, est aussi auteure et illustratrice anglaise.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>John_Burningham</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Burningham</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Quelques ouvrages traduits en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(Les dates entre parenthèses sont celles de l'édition originale anglaise)
 Borka : les aventures d'une oie sans plumes (traduction de Borka: The Adventures of a Goose With No Feathers, 1963)
@@ -573,7 +624,7 @@
 Jean-Philippe Nicolas Letoummou, le garçon qui arrivait toujours en retard (John Patrick Norman McHennessy: The Boy Who Was Always Late, 1987)
 Aldo 1993 (traduction de Aldo, 1991)
 Le Cadeau de Noël de Gaston Grippemine (traduction de Harvey Slumfenburger's Christmas Present, 1993)
-Train de nuit, 1995 (traduction de Oi! Get off our train, 1989) (Ouvrage sélectionné par l'Education Nationale en Cycle 2[7])
+Train de nuit, 1995 (traduction de Oi! Get off our train, 1989) (Ouvrage sélectionné par l'Education Nationale en Cycle 2)
 Au pays des nuages, 1996 (traduction de Cloudland, 1996)
 Le Lit magique (traduction de The Magic Bed, 2003)
 Tir à la corde (traduction de Tug Of War, 2012)
